--- a/projects/training_NSGA2b.xlsx
+++ b/projects/training_NSGA2b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="2970" windowHeight="9105" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="2976" windowHeight="9108" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1732,9 +1732,6 @@
     <t>Measure Directory Name</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -1945,9 +1942,6 @@
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
@@ -2090,6 +2084,12 @@
   </si>
   <si>
     <t>Office NSGA 2a</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>0.2.3</t>
   </si>
 </sst>
 </file>
@@ -5458,9 +5458,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -5488,21 +5488,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="31"/>
       <c r="C1" s="19"/>
@@ -5511,7 +5511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>438</v>
       </c>
@@ -5520,18 +5520,18 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>563</v>
+        <v>682</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -5547,29 +5547,29 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>634</v>
+        <v>681</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5580,10 +5580,10 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>464</v>
       </c>
@@ -5612,10 +5612,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="37"/>
       <c r="E9" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -5624,29 +5624,29 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>472</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>473</v>
       </c>
@@ -5673,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>474</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>476</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5711,15 +5711,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
       <c r="D22" s="2"/>
     </row>
@@ -5728,19 +5728,19 @@
         <v>454</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,1,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Number of Samples</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>Generations</v>
@@ -5770,7 +5770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,3,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>cprob</v>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,6,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>mprob</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,7,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>normType</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,8,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>pPower</v>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,9,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,10,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="D33" s="39"/>
     </row>
-    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$27,11,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v/>
@@ -5909,12 +5909,12 @@
       </c>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
@@ -5952,24 +5952,24 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
@@ -5977,11 +5977,11 @@
         <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6020,29 +6020,29 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -6097,7 +6097,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6174,24 +6174,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
         <v>22</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
@@ -6287,15 +6287,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>22</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="b">
         <v>1</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>386</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>79</v>
@@ -6364,12 +6364,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>80</v>
@@ -6397,10 +6397,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>22</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="b">
         <v>1</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>79</v>
@@ -6460,7 +6460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
@@ -6517,13 +6517,13 @@
         <v>65</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="b">
         <v>1</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>79</v>
@@ -6540,12 +6540,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>80</v>
@@ -6573,10 +6573,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
@@ -6613,13 +6613,13 @@
         <v>65</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="b">
         <v>1</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>79</v>
@@ -6636,12 +6636,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>80</v>
@@ -6669,10 +6669,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>22</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
@@ -6709,38 +6709,38 @@
         <v>65</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>2</v>
@@ -6749,21 +6749,21 @@
         <v>65</v>
       </c>
       <c r="I29" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>653</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>2</v>
@@ -6772,21 +6772,21 @@
         <v>65</v>
       </c>
       <c r="I30" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="E31" s="33" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>657</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2</v>
@@ -6795,18 +6795,18 @@
         <v>65</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>131</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="b">
         <v>1</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>173</v>
@@ -6838,12 +6838,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>175</v>
@@ -6871,10 +6871,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>22</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33" t="s">
         <v>22</v>
       </c>
@@ -6934,10 +6934,10 @@
         <v>65</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="b">
         <v>1</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>173</v>
@@ -6954,12 +6954,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>175</v>
@@ -6987,10 +6987,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
         <v>22</v>
       </c>
@@ -7007,13 +7007,13 @@
         <v>65</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
         <v>22</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
         <v>22</v>
       </c>
@@ -7050,10 +7050,10 @@
         <v>65</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="b">
         <v>1</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>173</v>
@@ -7070,12 +7070,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>175</v>
@@ -7103,10 +7103,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
         <v>22</v>
       </c>
@@ -7123,13 +7123,13 @@
         <v>65</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>22</v>
       </c>
@@ -7166,35 +7166,35 @@
         <v>65</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>659</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>661</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>2</v>
@@ -7206,15 +7206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>2</v>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7241,7 +7241,7 @@
       <c r="L51" s="17"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7262,7 +7262,7 @@
       <c r="R52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -7286,7 +7286,7 @@
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7311,7 +7311,7 @@
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7336,7 +7336,7 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -7360,7 +7360,7 @@
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7385,7 +7385,7 @@
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7410,7 +7410,7 @@
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -7434,7 +7434,7 @@
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7459,7 +7459,7 @@
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -7484,7 +7484,7 @@
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
     </row>
-    <row r="62" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -7508,7 +7508,7 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -7535,7 +7535,7 @@
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -7562,7 +7562,7 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" s="33"/>
@@ -7581,7 +7581,7 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" s="33"/>
@@ -7600,7 +7600,7 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" s="33"/>
@@ -7619,7 +7619,7 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" s="33"/>
@@ -7641,7 +7641,7 @@
       <c r="X68" s="25"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="33"/>
@@ -7659,7 +7659,7 @@
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="33"/>
@@ -7677,7 +7677,7 @@
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="33"/>
@@ -7695,7 +7695,7 @@
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="33"/>
@@ -7713,7 +7713,7 @@
       <c r="X72" s="25"/>
       <c r="Y72" s="25"/>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="33"/>
       <c r="K73" s="4"/>
       <c r="L73" s="1"/>
@@ -7728,7 +7728,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C74" s="33"/>
       <c r="K74" s="4"/>
       <c r="N74" s="17"/>
@@ -7740,7 +7740,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="33"/>
       <c r="K75" s="4"/>
       <c r="L75" s="1"/>
@@ -7755,7 +7755,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="33"/>
@@ -7768,7 +7768,7 @@
       <c r="J76"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" s="33"/>
@@ -7781,7 +7781,7 @@
       <c r="J77"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" s="33"/>
@@ -7794,7 +7794,7 @@
       <c r="J78"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="34"/>
@@ -7815,7 +7815,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="C80" s="33"/>
       <c r="N80" s="1"/>
@@ -7825,7 +7825,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="C81" s="33"/>
       <c r="N81" s="1"/>
@@ -7835,46 +7835,46 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="33"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="33"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="33"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="33"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="33"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="33"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="33"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="33"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
@@ -7882,7 +7882,7 @@
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="33"/>
@@ -7909,7 +7909,7 @@
       <c r="X91" s="25"/>
       <c r="Y91" s="25"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="33"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -7917,7 +7917,7 @@
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C93" s="34"/>
       <c r="I93" s="1"/>
       <c r="K93" s="4"/>
@@ -7945,16 +7945,16 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -7991,7 +7991,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -8005,12 +8005,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>478</v>
@@ -8024,12 +8024,12 @@
       <c r="H4" s="33"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>478</v>
@@ -8043,7 +8043,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -8051,7 +8051,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -8059,7 +8059,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -8068,7 +8068,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -8077,7 +8077,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8086,7 +8086,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -8095,7 +8095,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -8104,7 +8104,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -8113,7 +8113,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -8122,31 +8122,31 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="36"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -8155,7 +8155,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -8164,7 +8164,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -8172,7 +8172,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -8180,7 +8180,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -8188,7 +8188,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -8197,7 +8197,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -8206,7 +8206,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -8215,7 +8215,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -8243,16 +8243,16 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>22</v>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>22</v>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>22</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>22</v>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>22</v>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>22</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>22</v>
@@ -9193,7 +9193,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>22</v>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>22</v>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>22</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>22</v>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>22</v>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>22</v>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>22</v>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>22</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>22</v>
@@ -9417,7 +9417,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>22</v>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>22</v>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>22</v>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>22</v>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>22</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>22</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>22</v>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>22</v>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -9620,7 +9620,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>22</v>
@@ -9641,7 +9641,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>22</v>
@@ -9666,7 +9666,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>22</v>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>22</v>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>22</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>22</v>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>22</v>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>22</v>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>22</v>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>22</v>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>22</v>
@@ -9890,7 +9890,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>22</v>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>22</v>
@@ -9938,7 +9938,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>22</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>22</v>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>22</v>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>22</v>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>22</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>22</v>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>22</v>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>22</v>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>22</v>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>22</v>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -10187,7 +10187,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>22</v>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>22</v>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>22</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>22</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>22</v>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>22</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>22</v>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>22</v>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>22</v>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>22</v>
@@ -10461,7 +10461,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>22</v>
@@ -10501,7 +10501,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>22</v>
@@ -10526,7 +10526,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>22</v>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>22</v>
@@ -10593,7 +10593,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>22</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>22</v>
@@ -10637,7 +10637,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -10656,7 +10656,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>22</v>
@@ -10681,7 +10681,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>22</v>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>22</v>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>22</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>22</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>22</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>22</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>22</v>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>22</v>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>22</v>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -10926,7 +10926,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>22</v>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>22</v>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>22</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>22</v>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>22</v>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>22</v>
@@ -11108,7 +11108,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>22</v>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>22</v>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>22</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>22</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>22</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>22</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>22</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>22</v>
@@ -11336,7 +11336,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>22</v>
@@ -11357,7 +11357,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>22</v>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>22</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>22</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>22</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>22</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>22</v>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>22</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>22</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>22</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>22</v>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>22</v>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>22</v>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>22</v>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>22</v>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>22</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -11759,7 +11759,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>22</v>
@@ -11784,7 +11784,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>22</v>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>22</v>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>22</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>22</v>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>22</v>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>22</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>22</v>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>22</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>22</v>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -12010,7 +12010,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>22</v>
@@ -12035,7 +12035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>22</v>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>22</v>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>22</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>22</v>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>22</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>22</v>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>22</v>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>22</v>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>22</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -12261,7 +12261,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>22</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>22</v>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>22</v>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>22</v>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>22</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>22</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>22</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>22</v>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -12483,7 +12483,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>22</v>
@@ -12504,7 +12504,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>22</v>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -12546,7 +12546,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>22</v>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>22</v>
@@ -12594,7 +12594,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>22</v>
@@ -12615,7 +12615,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>22</v>
@@ -12640,7 +12640,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>22</v>
@@ -12665,7 +12665,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -12684,7 +12684,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>22</v>
@@ -12709,7 +12709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>22</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>22</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>22</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>22</v>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>22</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>22</v>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>22</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>22</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>22</v>
@@ -12937,7 +12937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>22</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>22</v>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>22</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>22</v>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>22</v>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>22</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>22</v>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>22</v>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>22</v>
@@ -13161,7 +13161,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>22</v>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>22</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>22</v>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>22</v>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>22</v>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>22</v>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>22</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>22</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>22</v>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>22</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>22</v>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>22</v>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>22</v>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>22</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>22</v>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -13525,7 +13525,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>22</v>
@@ -13546,7 +13546,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>22</v>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>22</v>
@@ -13592,7 +13592,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>22</v>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>22</v>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>22</v>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>22</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>22</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>22</v>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>22</v>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>22</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>22</v>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>22</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>22</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>22</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>22</v>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>22</v>
@@ -13935,7 +13935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>22</v>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>22</v>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>22</v>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>22</v>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>22</v>
@@ -14071,7 +14071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>22</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -14132,7 +14132,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -14151,7 +14151,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>22</v>
@@ -14172,7 +14172,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>22</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>22</v>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>22</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>22</v>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>22</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>22</v>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>22</v>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>22</v>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>22</v>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>22</v>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -14421,7 +14421,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>22</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -14463,7 +14463,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>22</v>
@@ -14488,7 +14488,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>22</v>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>22</v>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>22</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>22</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>22</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>22</v>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>22</v>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>22</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>22</v>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>22</v>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>22</v>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -14779,7 +14779,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>22</v>
@@ -14800,7 +14800,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -14819,7 +14819,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>22</v>
@@ -14840,7 +14840,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>22</v>
@@ -14880,7 +14880,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -14899,7 +14899,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>22</v>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -14941,7 +14941,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>22</v>
@@ -14966,7 +14966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>22</v>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>22</v>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>22</v>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>22</v>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>22</v>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>22</v>
@@ -15104,7 +15104,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>22</v>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>22</v>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -15169,7 +15169,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>22</v>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>22</v>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>22</v>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>22</v>
@@ -15261,7 +15261,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -15280,7 +15280,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>22</v>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>22</v>
@@ -15326,7 +15326,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>22</v>
@@ -15351,7 +15351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>22</v>
@@ -15395,7 +15395,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>22</v>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -15437,7 +15437,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>22</v>
@@ -15458,7 +15458,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>22</v>
@@ -15479,7 +15479,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>22</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -15521,7 +15521,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -15540,7 +15540,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>22</v>
@@ -15565,7 +15565,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>22</v>
@@ -15590,7 +15590,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>22</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>22</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>22</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>22</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>22</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>22</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>22</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>22</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>22</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -15893,7 +15893,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>22</v>
@@ -15922,7 +15922,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>22</v>
@@ -15961,7 +15961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>22</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>22</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>22</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>22</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>22</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>22</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>22</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>22</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>22</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>22</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16259,7 +16259,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>22</v>
       </c>
@@ -16285,7 +16285,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>23</v>
@@ -16326,7 +16326,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>22</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>22</v>
       </c>
@@ -16413,17 +16413,17 @@
       <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>444</v>
       </c>
@@ -16434,77 +16434,77 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>612</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>614</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>615</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>443</v>
       </c>
@@ -16512,55 +16512,55 @@
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>617</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>618</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>619</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>620</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" t="s">
         <v>570</v>
       </c>
-      <c r="E11" t="s">
-        <v>571</v>
-      </c>
       <c r="G11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -16568,13 +16568,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>458</v>
       </c>
@@ -16585,45 +16585,45 @@
         <v>557</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" t="s">
         <v>564</v>
-      </c>
-      <c r="C16" t="s">
-        <v>565</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="U16" s="33" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G17" t="s">
         <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>551</v>
@@ -16632,16 +16632,16 @@
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16650,10 +16650,10 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>556</v>
@@ -16673,94 +16673,94 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>555</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L20" t="s">
+        <v>596</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>597</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>598</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>552</v>
@@ -16769,27 +16769,27 @@
         <v>553</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>554</v>
@@ -16798,7 +16798,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>551</v>
@@ -16807,21 +16807,21 @@
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>556</v>
@@ -16830,7 +16830,7 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>552</v>
@@ -16839,15 +16839,15 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L24" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>554</v>
@@ -16856,21 +16856,21 @@
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>552</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>554</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
